--- a/materials/reading-ranger/stimuli/passage-error-excels/set-11b/giraffe_11g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-11b/giraffe_11g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="328">
   <si>
     <t xml:space="preserve">Giraffes</t>
   </si>
@@ -745,6 +745,12 @@
     <t xml:space="preserve">rene</t>
   </si>
   <si>
+    <t xml:space="preserve">tran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quil</t>
+  </si>
+  <si>
     <t xml:space="preserve">spo</t>
   </si>
   <si>
@@ -853,7 +859,7 @@
     <t xml:space="preserve">do</t>
   </si>
   <si>
-    <t xml:space="preserve">nantly</t>
+    <t xml:space="preserve">nant</t>
   </si>
   <si>
     <t xml:space="preserve">cca</t>
@@ -1614,7 +1620,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:YR1003"/>
+  <dimension ref="A1:YV1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2000,407 +2006,407 @@
       </c>
       <c r="FN1" s="3"/>
       <c r="FO1" s="3"/>
-      <c r="FP1" s="3" t="s">
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="FQ1" s="3"/>
-      <c r="FR1" s="3" t="s">
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="FS1" s="3"/>
       <c r="FT1" s="3"/>
-      <c r="FU1" s="3" t="s">
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="FV1" s="5" t="s">
+      <c r="FW1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="FW1" s="5"/>
       <c r="FX1" s="5"/>
       <c r="FY1" s="5"/>
-      <c r="FZ1" s="3" t="s">
+      <c r="FZ1" s="5"/>
+      <c r="GA1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="GA1" s="3" t="s">
+      <c r="GB1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="GB1" s="3" t="s">
+      <c r="GC1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="GC1" s="3" t="s">
+      <c r="GD1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="GD1" s="4" t="s">
+      <c r="GE1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="GE1" s="3" t="s">
+      <c r="GF1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="GF1" s="3"/>
       <c r="GG1" s="3"/>
-      <c r="GH1" s="3" t="s">
+      <c r="GH1" s="3"/>
+      <c r="GI1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="GI1" s="3" t="s">
+      <c r="GJ1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="GJ1" s="3"/>
-      <c r="GK1" s="3" t="s">
+      <c r="GK1" s="3"/>
+      <c r="GL1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="GL1" s="3"/>
       <c r="GM1" s="3"/>
-      <c r="GN1" s="3" t="s">
+      <c r="GN1" s="3"/>
+      <c r="GO1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="GO1" s="3" t="s">
+      <c r="GP1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="GP1" s="4" t="s">
+      <c r="GQ1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="GQ1" s="5" t="s">
+      <c r="GR1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="GR1" s="3" t="s">
+      <c r="GS1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="GS1" s="3"/>
       <c r="GT1" s="3"/>
-      <c r="GU1" s="3" t="s">
+      <c r="GU1" s="3"/>
+      <c r="GV1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="GV1" s="3" t="s">
+      <c r="GW1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="GW1" s="3"/>
       <c r="GX1" s="3"/>
-      <c r="GY1" s="3" t="s">
+      <c r="GY1" s="3"/>
+      <c r="GZ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="HC1" s="3"/>
       <c r="HD1" s="3"/>
-      <c r="HE1" s="3" t="s">
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="HG1" s="3"/>
       <c r="HH1" s="3"/>
       <c r="HI1" s="3"/>
       <c r="HJ1" s="3"/>
       <c r="HK1" s="3"/>
-      <c r="HL1" s="4" t="s">
+      <c r="HL1" s="3"/>
+      <c r="HM1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="HN1" s="3"/>
-      <c r="HO1" s="5" t="s">
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="HP1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="HQ1" s="3" t="s">
+      <c r="HR1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="HR1" s="3" t="s">
+      <c r="HS1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="HS1" s="3"/>
-      <c r="HT1" s="3" t="s">
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="HU1" s="3" t="s">
+      <c r="HV1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="HV1" s="3"/>
       <c r="HW1" s="3"/>
-      <c r="HX1" s="3" t="s">
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="HY1" s="3" t="s">
+      <c r="HZ1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="HZ1" s="3"/>
       <c r="IA1" s="3"/>
-      <c r="IB1" s="3" t="s">
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="IC1" s="3" t="s">
+      <c r="ID1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="ID1" s="3"/>
-      <c r="IE1" s="3" t="s">
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="IF1" s="3"/>
-      <c r="IG1" s="3" t="s">
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="IH1" s="3" t="s">
+      <c r="II1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="II1" s="3"/>
-      <c r="IJ1" s="5" t="s">
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="IK1" s="3" t="s">
+      <c r="IL1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="IL1" s="3"/>
       <c r="IM1" s="3"/>
       <c r="IN1" s="3"/>
-      <c r="IO1" s="3" t="s">
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="IP1" s="3" t="s">
+      <c r="IQ1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="IQ1" s="3"/>
       <c r="IR1" s="3"/>
-      <c r="IS1" s="3" t="s">
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="IT1" s="3" t="s">
+      <c r="IU1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="IU1" s="3"/>
       <c r="IV1" s="3"/>
       <c r="IW1" s="3"/>
-      <c r="IX1" s="3" t="s">
+      <c r="IX1" s="3"/>
+      <c r="IY1" s="3"/>
+      <c r="IZ1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="IY1" s="4" t="s">
+      <c r="JA1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="IZ1" s="4" t="s">
+      <c r="JB1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="JA1" s="4" t="s">
+      <c r="JC1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="JB1" s="5" t="s">
+      <c r="JD1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="JC1" s="3" t="s">
+      <c r="JE1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="JD1" s="3"/>
-      <c r="JE1" s="3"/>
       <c r="JF1" s="3"/>
       <c r="JG1" s="3"/>
-      <c r="JH1" s="3" t="s">
+      <c r="JH1" s="3"/>
+      <c r="JI1" s="3"/>
+      <c r="JJ1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="JI1" s="3" t="s">
+      <c r="JK1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="JJ1" s="3" t="s">
+      <c r="JL1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="JK1" s="3" t="s">
+      <c r="JM1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="JL1" s="3" t="s">
+      <c r="JN1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="JM1" s="3"/>
-      <c r="JN1" s="4" t="s">
+      <c r="JO1" s="3"/>
+      <c r="JP1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="JO1" s="3" t="s">
+      <c r="JQ1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="JP1" s="3"/>
-      <c r="JQ1" s="3"/>
       <c r="JR1" s="3"/>
-      <c r="JS1" s="3" t="s">
+      <c r="JS1" s="3"/>
+      <c r="JT1" s="3"/>
+      <c r="JU1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="JT1" s="3" t="s">
+      <c r="JV1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="JU1" s="3"/>
-      <c r="JV1" s="3" t="s">
+      <c r="JW1" s="3"/>
+      <c r="JX1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="JW1" s="5" t="s">
+      <c r="JY1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="JX1" s="5"/>
-      <c r="JY1" s="5"/>
-      <c r="JZ1" s="3" t="s">
+      <c r="JZ1" s="5"/>
+      <c r="KA1" s="5"/>
+      <c r="KB1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="KA1" s="3"/>
-      <c r="KB1" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="KC1" s="3"/>
       <c r="KD1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="KE1" s="3"/>
+      <c r="KF1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="KE1" s="3" t="s">
+      <c r="KG1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="KF1" s="3" t="s">
+      <c r="KH1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="KG1" s="3" t="s">
+      <c r="KI1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="KH1" s="3"/>
-      <c r="KI1" s="3"/>
       <c r="KJ1" s="3"/>
-      <c r="KK1" s="3" t="s">
+      <c r="KK1" s="3"/>
+      <c r="KL1" s="3"/>
+      <c r="KM1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="KL1" s="3"/>
-      <c r="KM1" s="3"/>
-      <c r="KN1" s="3" t="s">
+      <c r="KN1" s="3"/>
+      <c r="KO1" s="3"/>
+      <c r="KP1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="KO1" s="3"/>
-      <c r="KP1" s="3"/>
-      <c r="KQ1" s="4" t="s">
+      <c r="KQ1" s="3"/>
+      <c r="KR1" s="3"/>
+      <c r="KS1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="KR1" s="4" t="s">
+      <c r="KT1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="KS1" s="4" t="s">
+      <c r="KU1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="KT1" s="3" t="s">
+      <c r="KV1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="KU1" s="5" t="s">
+      <c r="KW1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="KV1" s="5"/>
-      <c r="KW1" s="5"/>
-      <c r="KX1" s="3" t="s">
+      <c r="KX1" s="5"/>
+      <c r="KY1" s="5"/>
+      <c r="KZ1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="KY1" s="3"/>
-      <c r="KZ1" s="3"/>
-      <c r="LA1" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="LA1" s="3"/>
       <c r="LB1" s="3"/>
       <c r="LC1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="LD1" s="3"/>
+      <c r="LE1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="LD1" s="3" t="s">
+      <c r="LF1" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="LE1" s="3"/>
-      <c r="LF1" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="LG1" s="3"/>
       <c r="LH1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="LI1" s="3"/>
+      <c r="LJ1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="LI1" s="3" t="s">
+      <c r="LK1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="LJ1" s="3" t="s">
+      <c r="LL1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="LK1" s="4" t="s">
+      <c r="LM1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="LL1" s="3" t="s">
+      <c r="LN1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="LM1" s="3"/>
-      <c r="LN1" s="3"/>
       <c r="LO1" s="3"/>
-      <c r="LP1" s="3" t="s">
+      <c r="LP1" s="3"/>
+      <c r="LQ1" s="3"/>
+      <c r="LR1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="LQ1" s="3" t="s">
+      <c r="LS1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="LR1" s="3"/>
-      <c r="LS1" s="3"/>
-      <c r="LT1" s="5" t="s">
+      <c r="LT1" s="3"/>
+      <c r="LU1" s="3"/>
+      <c r="LV1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="LU1" s="3" t="s">
+      <c r="LW1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="LV1" s="3"/>
-      <c r="LW1" s="3"/>
-      <c r="LX1" s="3" t="s">
+      <c r="LX1" s="3"/>
+      <c r="LY1" s="3"/>
+      <c r="LZ1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="LY1" s="3" t="s">
+      <c r="MA1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="LZ1" s="3"/>
-      <c r="MA1" s="3" t="s">
+      <c r="MB1" s="3"/>
+      <c r="MC1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="MB1" s="3"/>
-      <c r="MC1" s="3"/>
-      <c r="MD1" s="3" t="s">
+      <c r="MD1" s="3"/>
+      <c r="ME1" s="3"/>
+      <c r="MF1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="ME1" s="3" t="s">
+      <c r="MG1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="MF1" s="3"/>
-      <c r="MG1" s="4" t="s">
+      <c r="MH1" s="3"/>
+      <c r="MI1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="MH1" s="3" t="s">
+      <c r="MJ1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="MI1" s="3"/>
-      <c r="MJ1" s="3"/>
       <c r="MK1" s="3"/>
       <c r="ML1" s="3"/>
       <c r="MM1" s="3"/>
-      <c r="MN1" s="4"/>
-      <c r="MO1" s="4"/>
-      <c r="MP1" s="3"/>
-      <c r="MQ1" s="3"/>
-      <c r="MR1" s="4"/>
-      <c r="MS1" s="4"/>
+      <c r="MN1" s="3"/>
+      <c r="MO1" s="3"/>
+      <c r="MP1" s="4"/>
+      <c r="MQ1" s="4"/>
+      <c r="MR1" s="3"/>
+      <c r="MS1" s="3"/>
       <c r="MT1" s="4"/>
-      <c r="MU1" s="3"/>
-      <c r="MV1" s="3"/>
+      <c r="MU1" s="4"/>
+      <c r="MV1" s="4"/>
       <c r="MW1" s="3"/>
       <c r="MX1" s="3"/>
       <c r="MY1" s="3"/>
       <c r="MZ1" s="3"/>
       <c r="NA1" s="3"/>
       <c r="NB1" s="3"/>
-      <c r="NC1" s="4"/>
+      <c r="NC1" s="3"/>
       <c r="ND1" s="3"/>
-      <c r="NE1" s="3"/>
+      <c r="NE1" s="4"/>
       <c r="NF1" s="3"/>
       <c r="NG1" s="3"/>
       <c r="NH1" s="3"/>
-      <c r="NI1" s="4"/>
-      <c r="NJ1" s="4"/>
-      <c r="NK1" s="3"/>
-      <c r="NL1" s="3"/>
+      <c r="NI1" s="3"/>
+      <c r="NJ1" s="3"/>
+      <c r="NK1" s="4"/>
+      <c r="NL1" s="4"/>
       <c r="NM1" s="3"/>
       <c r="NN1" s="3"/>
       <c r="NO1" s="3"/>
@@ -2410,111 +2416,111 @@
       <c r="NS1" s="3"/>
       <c r="NT1" s="3"/>
       <c r="NU1" s="3"/>
-      <c r="NV1" s="4"/>
-      <c r="NW1" s="4"/>
+      <c r="NV1" s="3"/>
+      <c r="NW1" s="3"/>
       <c r="NX1" s="4"/>
       <c r="NY1" s="4"/>
-      <c r="NZ1" s="3"/>
-      <c r="OA1" s="3"/>
+      <c r="NZ1" s="4"/>
+      <c r="OA1" s="4"/>
       <c r="OB1" s="3"/>
       <c r="OC1" s="3"/>
       <c r="OD1" s="3"/>
-      <c r="OE1" s="4"/>
-      <c r="OF1" s="4"/>
-      <c r="OG1" s="3"/>
-      <c r="OH1" s="3"/>
+      <c r="OE1" s="3"/>
+      <c r="OF1" s="3"/>
+      <c r="OG1" s="4"/>
+      <c r="OH1" s="4"/>
       <c r="OI1" s="3"/>
       <c r="OJ1" s="3"/>
-      <c r="OK1" s="4"/>
-      <c r="OL1" s="4"/>
+      <c r="OK1" s="3"/>
+      <c r="OL1" s="3"/>
       <c r="OM1" s="4"/>
-      <c r="ON1" s="3"/>
-      <c r="OO1" s="3"/>
-      <c r="OP1" s="4"/>
+      <c r="ON1" s="4"/>
+      <c r="OO1" s="4"/>
+      <c r="OP1" s="3"/>
       <c r="OQ1" s="3"/>
-      <c r="OR1" s="3"/>
+      <c r="OR1" s="4"/>
       <c r="OS1" s="3"/>
-      <c r="OT1" s="4"/>
+      <c r="OT1" s="3"/>
       <c r="OU1" s="3"/>
-      <c r="OV1" s="3"/>
-      <c r="OW1" s="4"/>
-      <c r="OX1" s="4"/>
+      <c r="OV1" s="4"/>
+      <c r="OW1" s="3"/>
+      <c r="OX1" s="3"/>
       <c r="OY1" s="4"/>
-      <c r="OZ1" s="3"/>
-      <c r="PA1" s="3"/>
+      <c r="OZ1" s="4"/>
+      <c r="PA1" s="4"/>
       <c r="PB1" s="3"/>
-      <c r="PC1" s="4"/>
-      <c r="PD1" s="4"/>
-      <c r="PE1" s="3"/>
-      <c r="PF1" s="3"/>
+      <c r="PC1" s="3"/>
+      <c r="PD1" s="3"/>
+      <c r="PE1" s="4"/>
+      <c r="PF1" s="4"/>
       <c r="PG1" s="3"/>
       <c r="PH1" s="3"/>
       <c r="PI1" s="3"/>
       <c r="PJ1" s="3"/>
-      <c r="PK1" s="4"/>
-      <c r="PL1" s="4"/>
-      <c r="PM1" s="3"/>
-      <c r="PN1" s="3"/>
-      <c r="PO1" s="4"/>
+      <c r="PK1" s="3"/>
+      <c r="PL1" s="3"/>
+      <c r="PM1" s="4"/>
+      <c r="PN1" s="4"/>
+      <c r="PO1" s="3"/>
       <c r="PP1" s="3"/>
-      <c r="PQ1" s="3"/>
-      <c r="PR1" s="4"/>
+      <c r="PQ1" s="4"/>
+      <c r="PR1" s="3"/>
       <c r="PS1" s="3"/>
-      <c r="PT1" s="3"/>
+      <c r="PT1" s="4"/>
       <c r="PU1" s="3"/>
       <c r="PV1" s="3"/>
-      <c r="PW1" s="4"/>
-      <c r="PX1" s="4"/>
-      <c r="PY1" s="3"/>
-      <c r="PZ1" s="3"/>
+      <c r="PW1" s="3"/>
+      <c r="PX1" s="3"/>
+      <c r="PY1" s="4"/>
+      <c r="PZ1" s="4"/>
       <c r="QA1" s="3"/>
-      <c r="QB1" s="4"/>
-      <c r="QC1" s="4"/>
+      <c r="QB1" s="3"/>
+      <c r="QC1" s="3"/>
       <c r="QD1" s="4"/>
       <c r="QE1" s="4"/>
-      <c r="QF1" s="3"/>
-      <c r="QG1" s="3"/>
+      <c r="QF1" s="4"/>
+      <c r="QG1" s="4"/>
       <c r="QH1" s="3"/>
       <c r="QI1" s="3"/>
-      <c r="QJ1" s="4"/>
+      <c r="QJ1" s="3"/>
       <c r="QK1" s="3"/>
-      <c r="QL1" s="3"/>
+      <c r="QL1" s="4"/>
       <c r="QM1" s="3"/>
       <c r="QN1" s="3"/>
-      <c r="QO1" s="4"/>
-      <c r="QP1" s="4"/>
-      <c r="QQ1" s="3"/>
-      <c r="QR1" s="3"/>
-      <c r="QS1" s="4"/>
-      <c r="QT1" s="4"/>
+      <c r="QO1" s="3"/>
+      <c r="QP1" s="3"/>
+      <c r="QQ1" s="4"/>
+      <c r="QR1" s="4"/>
+      <c r="QS1" s="3"/>
+      <c r="QT1" s="3"/>
       <c r="QU1" s="4"/>
       <c r="QV1" s="4"/>
-      <c r="QW1" s="3"/>
-      <c r="QX1" s="3"/>
+      <c r="QW1" s="4"/>
+      <c r="QX1" s="4"/>
       <c r="QY1" s="3"/>
       <c r="QZ1" s="3"/>
       <c r="RA1" s="3"/>
-      <c r="RB1" s="4"/>
+      <c r="RB1" s="3"/>
       <c r="RC1" s="3"/>
-      <c r="RD1" s="3"/>
+      <c r="RD1" s="4"/>
       <c r="RE1" s="3"/>
-      <c r="RF1" s="4"/>
+      <c r="RF1" s="3"/>
       <c r="RG1" s="3"/>
-      <c r="RH1" s="3"/>
+      <c r="RH1" s="4"/>
       <c r="RI1" s="3"/>
-      <c r="RJ1" s="4"/>
+      <c r="RJ1" s="3"/>
       <c r="RK1" s="3"/>
-      <c r="RL1" s="3"/>
-      <c r="RM1" s="4"/>
+      <c r="RL1" s="4"/>
+      <c r="RM1" s="3"/>
       <c r="RN1" s="3"/>
-      <c r="RO1" s="3"/>
+      <c r="RO1" s="4"/>
       <c r="RP1" s="3"/>
       <c r="RQ1" s="3"/>
       <c r="RR1" s="3"/>
       <c r="RS1" s="3"/>
-      <c r="RT1" s="4"/>
+      <c r="RT1" s="3"/>
       <c r="RU1" s="3"/>
-      <c r="RV1" s="3"/>
+      <c r="RV1" s="4"/>
       <c r="RW1" s="3"/>
       <c r="RX1" s="3"/>
       <c r="RY1" s="3"/>
@@ -2524,10 +2530,10 @@
       <c r="SC1" s="3"/>
       <c r="SD1" s="3"/>
       <c r="SE1" s="3"/>
-      <c r="SF1" s="4"/>
-      <c r="SG1" s="4"/>
-      <c r="SH1" s="3"/>
-      <c r="SI1" s="3"/>
+      <c r="SF1" s="3"/>
+      <c r="SG1" s="3"/>
+      <c r="SH1" s="4"/>
+      <c r="SI1" s="4"/>
       <c r="SJ1" s="3"/>
       <c r="SK1" s="3"/>
       <c r="SL1" s="3"/>
@@ -2536,8 +2542,8 @@
       <c r="SO1" s="3"/>
       <c r="SP1" s="3"/>
       <c r="SQ1" s="3"/>
-      <c r="SR1" s="4"/>
-      <c r="SS1" s="4"/>
+      <c r="SR1" s="3"/>
+      <c r="SS1" s="3"/>
       <c r="ST1" s="4"/>
       <c r="SU1" s="4"/>
       <c r="SV1" s="4"/>
@@ -2693,6 +2699,8 @@
       <c r="YP1" s="4"/>
       <c r="YQ1" s="4"/>
       <c r="YR1" s="4"/>
+      <c r="YS1" s="4"/>
+      <c r="YT1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
@@ -3192,550 +3200,554 @@
         <v>28</v>
       </c>
       <c r="FK2" s="7" t="s">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="FL2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="FM2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="FM2" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="FN2" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="FO2" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="FO2" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="FP2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="FQ2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="FQ2" s="7" t="s">
+      <c r="FR2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="FR2" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="FS2" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="FT2" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="FU2" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="FV2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="FV2" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="FW2" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="FX2" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="FY2" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="FZ2" s="7" t="s">
+      <c r="FY2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="FZ2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="GA2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="GA2" s="7" t="s">
+      <c r="GB2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="GB2" s="7" t="s">
+      <c r="GC2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="GC2" s="7" t="s">
+      <c r="GD2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="GD2" s="7" t="s">
+      <c r="GE2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="GE2" s="7" t="s">
+      <c r="GF2" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="GF2" s="7" t="s">
+      <c r="GG2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="GG2" s="7" t="s">
+      <c r="GH2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="GH2" s="7" t="s">
+      <c r="GI2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="GI2" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="GJ2" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="GK2" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="GL2" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="GM2" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="GN2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="GO2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="GO2" s="7" t="s">
+      <c r="GP2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="GP2" s="7" t="s">
+      <c r="GQ2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="GQ2" s="8" t="s">
+      <c r="GR2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="GR2" s="7" t="s">
+      <c r="GS2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="GT2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="GU2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="GV2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="GW2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="GX2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="GY2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="GZ2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="HA2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="HB2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="HC2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="HD2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="HE2" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="HF2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="HG2" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="HH2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="HI2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="HJ2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="HK2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="HL2" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="HM2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="HN2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="HO2" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="HP2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="HQ2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="HR2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="HS2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="HT2" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="HU2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="HV2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="HW2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="HX2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="HY2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="IA2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="IB2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="IC2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="ID2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="IE2" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="IF2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="IG2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="IH2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="II2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="IJ2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="IK2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="IL2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="IM2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="IN2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="IO2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="IP2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="IQ2" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="IR2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="IS2" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="IT2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="IU2" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="GS2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="GT2" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="GU2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="GV2" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="GW2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="GX2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="GY2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="GZ2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="HA2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="HB2" s="7" t="s">
+      <c r="IV2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="IW2" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="HC2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="HD2" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="HE2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="HF2" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="HG2" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="HH2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="HI2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="HJ2" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="HK2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="HL2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="HM2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="HN2" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="HO2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="HP2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="HQ2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="HR2" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="HS2" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="HT2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="HU2" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="HV2" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW2" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="HX2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="HY2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="HZ2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="IA2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="IB2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="IC2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="ID2" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="IE2" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="IF2" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="IG2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="IH2" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="II2" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="IJ2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="IK2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="IL2" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="IM2" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="IN2" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="IO2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="IP2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="IQ2" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="IR2" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="IS2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="IT2" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="IU2" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="IV2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="IW2" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="IX2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="IY2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="IZ2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="IY2" s="7" t="s">
+      <c r="JA2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="IZ2" s="7" t="s">
+      <c r="JB2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="JA2" s="7" t="s">
+      <c r="JC2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="JB2" s="8" t="s">
+      <c r="JD2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="JC2" s="7" t="s">
+      <c r="JE2" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="JD2" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="JE2" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="JF2" s="7" t="s">
         <v>280</v>
       </c>
       <c r="JG2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="JH2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="JI2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="JH2" s="7" t="s">
+      <c r="JJ2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="JI2" s="7" t="s">
+      <c r="JK2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="JJ2" s="7" t="s">
+      <c r="JL2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="JK2" s="7" t="s">
+      <c r="JM2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="JL2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="JM2" s="7" t="s">
+      <c r="JN2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="JO2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="JN2" s="7" t="s">
+      <c r="JP2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="JO2" s="7" t="s">
+      <c r="JQ2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="JP2" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="JQ2" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="JR2" s="7" t="s">
         <v>284</v>
       </c>
       <c r="JS2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="JT2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="JU2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="JT2" s="7" t="s">
+      <c r="JV2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="JU2" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="JV2" s="7" t="s">
+      <c r="JW2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="JX2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="JW2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="JX2" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="JY2" s="8" t="s">
-        <v>287</v>
+      <c r="JY2" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="JZ2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="KA2" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="KB2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="KA2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="KB2" s="7" t="s">
+      <c r="KC2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="KD2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="KC2" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="KD2" s="7" t="s">
+      <c r="KE2" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="KF2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="KE2" s="7" t="s">
+      <c r="KG2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="KF2" s="7" t="s">
+      <c r="KH2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="KG2" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="KH2" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="KI2" s="7" t="s">
         <v>248</v>
       </c>
       <c r="KJ2" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="KK2" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="KL2" s="7" t="s">
         <v>292</v>
       </c>
       <c r="KM2" s="7" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="KN2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="KO2" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="KP2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="KO2" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="KP2" s="7" t="s">
+      <c r="KQ2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="KR2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="KQ2" s="7" t="s">
+      <c r="KS2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="KR2" s="7" t="s">
+      <c r="KT2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="KS2" s="7" t="s">
+      <c r="KU2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="KT2" s="7" t="s">
+      <c r="KV2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="KU2" s="7" t="s">
+      <c r="KW2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="KV2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="KW2" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="KX2" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="KY2" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="KZ2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="KY2" s="7" t="s">
+      <c r="LA2" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="KZ2" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="LA2" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="LB2" s="7" t="s">
         <v>297</v>
       </c>
       <c r="LC2" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="LD2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="LE2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="LD2" s="7" t="s">
+      <c r="LF2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="LE2" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="LF2" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="LG2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="LH2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="LI2" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="LH2" s="7" t="s">
+      <c r="LJ2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="LI2" s="7" t="s">
+      <c r="LK2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="LJ2" s="7" t="s">
+      <c r="LL2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="LK2" s="7" t="s">
+      <c r="LM2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="LL2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="LM2" s="7" t="s">
+      <c r="LN2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="LO2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="LN2" s="7" t="s">
+      <c r="LP2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="LO2" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="LP2" s="7" t="s">
+      <c r="LQ2" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="LR2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="LQ2" s="7" t="s">
+      <c r="LS2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="LR2" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="LS2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="LT2" s="8" t="s">
+      <c r="LT2" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="LU2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="LV2" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="LU2" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="LV2" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="LW2" s="7" t="s">
         <v>305</v>
       </c>
       <c r="LX2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="LY2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="LZ2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="LY2" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="LZ2" s="7" t="s">
+      <c r="MA2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="MB2" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="MA2" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="MB2" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="MC2" s="7" t="s">
         <v>309</v>
       </c>
       <c r="MD2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="ME2" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="MF2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="ME2" s="7" t="s">
+      <c r="MG2" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="MH2" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="MF2" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="MG2" s="7" t="s">
+      <c r="MI2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="MH2" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="MI2" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="MJ2" s="7"/>
-      <c r="MK2" s="7"/>
+      <c r="MJ2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="MK2" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="ML2" s="7"/>
       <c r="MM2" s="7"/>
       <c r="MN2" s="7"/>
@@ -3758,10 +3770,12 @@
       <c r="NE2" s="7"/>
       <c r="NF2" s="7"/>
       <c r="NG2" s="7"/>
+      <c r="NH2" s="7"/>
+      <c r="NI2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0</v>
@@ -4300,10 +4314,10 @@
       <c r="FX3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" s="10" t="n">
+      <c r="FY3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA3" s="10" t="n">
@@ -4354,10 +4368,10 @@
       <c r="GP3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" s="10" t="n">
+      <c r="GQ3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS3" s="10" t="n">
@@ -4426,10 +4440,10 @@
       <c r="HN3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" s="10" t="n">
+      <c r="HO3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ3" s="10" t="n">
@@ -4489,10 +4503,10 @@
       <c r="II3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK3" s="10" t="n">
+      <c r="IJ3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL3" s="10" t="n">
@@ -4543,13 +4557,13 @@
       <c r="JA3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB3" s="11" t="n">
+      <c r="JB3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD3" s="10" t="n">
+      <c r="JD3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE3" s="10" t="n">
@@ -4612,13 +4626,13 @@
       <c r="JX3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY3" s="11" t="n">
+      <c r="JY3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA3" s="10" t="n">
+      <c r="KA3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB3" s="10" t="n">
@@ -4684,13 +4698,13 @@
       <c r="KV3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW3" s="11" t="n">
+      <c r="KW3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY3" s="10" t="n">
+      <c r="KY3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ3" s="10" t="n">
@@ -4753,13 +4767,13 @@
       <c r="LS3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT3" s="11" t="n">
+      <c r="LT3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV3" s="10" t="n">
+      <c r="LV3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW3" s="10" t="n">
@@ -4801,8 +4815,12 @@
       <c r="MI3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ3" s="10"/>
-      <c r="MK3" s="10"/>
+      <c r="MJ3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK3" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML3" s="10"/>
       <c r="MM3" s="10"/>
       <c r="MN3" s="10"/>
@@ -4817,18 +4835,20 @@
       <c r="MW3" s="10"/>
       <c r="MX3" s="10"/>
       <c r="MY3" s="10"/>
-      <c r="MZ3" s="12"/>
-      <c r="NA3" s="12"/>
+      <c r="MZ3" s="10"/>
+      <c r="NA3" s="10"/>
       <c r="NB3" s="12"/>
       <c r="NC3" s="12"/>
       <c r="ND3" s="12"/>
       <c r="NE3" s="12"/>
       <c r="NF3" s="12"/>
       <c r="NG3" s="12"/>
+      <c r="NH3" s="12"/>
+      <c r="NI3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0</v>
@@ -5367,10 +5387,10 @@
       <c r="FX4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ4" s="10" t="n">
+      <c r="FY4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA4" s="10" t="n">
@@ -5421,10 +5441,10 @@
       <c r="GP4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" s="10" t="n">
+      <c r="GQ4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS4" s="10" t="n">
@@ -5493,10 +5513,10 @@
       <c r="HN4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP4" s="10" t="n">
+      <c r="HO4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ4" s="10" t="n">
@@ -5556,10 +5576,10 @@
       <c r="II4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK4" s="10" t="n">
+      <c r="IJ4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL4" s="10" t="n">
@@ -5610,13 +5630,13 @@
       <c r="JA4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB4" s="11" t="n">
+      <c r="JB4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD4" s="10" t="n">
+      <c r="JD4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE4" s="10" t="n">
@@ -5679,13 +5699,13 @@
       <c r="JX4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY4" s="11" t="n">
+      <c r="JY4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA4" s="10" t="n">
+      <c r="KA4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB4" s="10" t="n">
@@ -5751,13 +5771,13 @@
       <c r="KV4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW4" s="11" t="n">
+      <c r="KW4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY4" s="10" t="n">
+      <c r="KY4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ4" s="10" t="n">
@@ -5820,13 +5840,13 @@
       <c r="LS4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT4" s="11" t="n">
+      <c r="LT4" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV4" s="10" t="n">
+      <c r="LV4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW4" s="10" t="n">
@@ -5868,8 +5888,12 @@
       <c r="MI4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ4" s="10"/>
-      <c r="MK4" s="10"/>
+      <c r="MJ4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK4" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML4" s="10"/>
       <c r="MM4" s="10"/>
       <c r="MN4" s="10"/>
@@ -5884,18 +5908,20 @@
       <c r="MW4" s="10"/>
       <c r="MX4" s="10"/>
       <c r="MY4" s="10"/>
-      <c r="MZ4" s="12"/>
-      <c r="NA4" s="12"/>
+      <c r="MZ4" s="10"/>
+      <c r="NA4" s="10"/>
       <c r="NB4" s="12"/>
       <c r="NC4" s="12"/>
       <c r="ND4" s="12"/>
       <c r="NE4" s="12"/>
       <c r="NF4" s="12"/>
       <c r="NG4" s="12"/>
+      <c r="NH4" s="12"/>
+      <c r="NI4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0</v>
@@ -6434,10 +6460,10 @@
       <c r="FX5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ5" s="10" t="n">
+      <c r="FY5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA5" s="10" t="n">
@@ -6488,10 +6514,10 @@
       <c r="GP5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" s="10" t="n">
+      <c r="GQ5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS5" s="10" t="n">
@@ -6560,10 +6586,10 @@
       <c r="HN5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP5" s="10" t="n">
+      <c r="HO5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ5" s="10" t="n">
@@ -6623,10 +6649,10 @@
       <c r="II5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK5" s="10" t="n">
+      <c r="IJ5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL5" s="10" t="n">
@@ -6677,13 +6703,13 @@
       <c r="JA5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB5" s="11" t="n">
+      <c r="JB5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD5" s="10" t="n">
+      <c r="JD5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE5" s="10" t="n">
@@ -6746,13 +6772,13 @@
       <c r="JX5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY5" s="11" t="n">
+      <c r="JY5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA5" s="10" t="n">
+      <c r="KA5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB5" s="10" t="n">
@@ -6818,13 +6844,13 @@
       <c r="KV5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW5" s="11" t="n">
+      <c r="KW5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY5" s="10" t="n">
+      <c r="KY5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ5" s="10" t="n">
@@ -6887,13 +6913,13 @@
       <c r="LS5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT5" s="11" t="n">
+      <c r="LT5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV5" s="10" t="n">
+      <c r="LV5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW5" s="10" t="n">
@@ -6935,8 +6961,12 @@
       <c r="MI5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ5" s="10"/>
-      <c r="MK5" s="10"/>
+      <c r="MJ5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK5" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML5" s="10"/>
       <c r="MM5" s="10"/>
       <c r="MN5" s="10"/>
@@ -6951,18 +6981,20 @@
       <c r="MW5" s="10"/>
       <c r="MX5" s="10"/>
       <c r="MY5" s="10"/>
-      <c r="MZ5" s="12"/>
-      <c r="NA5" s="12"/>
+      <c r="MZ5" s="10"/>
+      <c r="NA5" s="10"/>
       <c r="NB5" s="12"/>
       <c r="NC5" s="12"/>
       <c r="ND5" s="12"/>
       <c r="NE5" s="12"/>
       <c r="NF5" s="12"/>
       <c r="NG5" s="12"/>
+      <c r="NH5" s="12"/>
+      <c r="NI5" s="12"/>
     </row>
     <row r="6" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B6" s="15" t="n">
         <v>0</v>
@@ -7501,10 +7533,10 @@
       <c r="FX6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="FY6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ6" s="15" t="n">
+      <c r="FY6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="GA6" s="15" t="n">
@@ -7555,10 +7587,10 @@
       <c r="GP6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="GQ6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" s="15" t="n">
+      <c r="GQ6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="GS6" s="15" t="n">
@@ -7627,10 +7659,10 @@
       <c r="HN6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="HO6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP6" s="15" t="n">
+      <c r="HO6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="HQ6" s="15" t="n">
@@ -7690,10 +7722,10 @@
       <c r="II6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="IJ6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK6" s="15" t="n">
+      <c r="IJ6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="IL6" s="15" t="n">
@@ -7744,13 +7776,13 @@
       <c r="JA6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="JB6" s="16" t="n">
+      <c r="JB6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="JC6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="JD6" s="15" t="n">
+      <c r="JD6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="JE6" s="15" t="n">
@@ -7813,13 +7845,13 @@
       <c r="JX6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="JY6" s="16" t="n">
+      <c r="JY6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="JZ6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="KA6" s="15" t="n">
+      <c r="KA6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="KB6" s="15" t="n">
@@ -7885,13 +7917,13 @@
       <c r="KV6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="KW6" s="16" t="n">
+      <c r="KW6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="KX6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="KY6" s="15" t="n">
+      <c r="KY6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="KZ6" s="15" t="n">
@@ -7954,13 +7986,13 @@
       <c r="LS6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="LT6" s="16" t="n">
+      <c r="LT6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="LU6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="LV6" s="15" t="n">
+      <c r="LV6" s="16" t="n">
         <v>0</v>
       </c>
       <c r="LW6" s="15" t="n">
@@ -8002,8 +8034,12 @@
       <c r="MI6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="MJ6" s="15"/>
-      <c r="MK6" s="15"/>
+      <c r="MJ6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK6" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="ML6" s="15"/>
       <c r="MM6" s="15"/>
       <c r="MN6" s="15"/>
@@ -8018,18 +8054,22 @@
       <c r="MW6" s="15"/>
       <c r="MX6" s="15"/>
       <c r="MY6" s="15"/>
-      <c r="MZ6" s="17"/>
-      <c r="NA6" s="17"/>
+      <c r="MZ6" s="15"/>
+      <c r="NA6" s="15"/>
       <c r="NB6" s="17"/>
       <c r="NC6" s="17"/>
       <c r="ND6" s="17"/>
       <c r="NE6" s="17"/>
       <c r="NF6" s="17"/>
       <c r="NG6" s="17"/>
+      <c r="NH6" s="17"/>
+      <c r="NI6" s="17"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0</v>
@@ -8568,10 +8608,10 @@
       <c r="FX7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ7" s="10" t="n">
+      <c r="FY7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA7" s="10" t="n">
@@ -8622,10 +8662,10 @@
       <c r="GP7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR7" s="10" t="n">
+      <c r="GQ7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS7" s="10" t="n">
@@ -8694,10 +8734,10 @@
       <c r="HN7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP7" s="10" t="n">
+      <c r="HO7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ7" s="10" t="n">
@@ -8757,10 +8797,10 @@
       <c r="II7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK7" s="10" t="n">
+      <c r="IJ7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL7" s="10" t="n">
@@ -8811,13 +8851,13 @@
       <c r="JA7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB7" s="11" t="n">
+      <c r="JB7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD7" s="10" t="n">
+      <c r="JD7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE7" s="10" t="n">
@@ -8880,13 +8920,13 @@
       <c r="JX7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY7" s="11" t="n">
+      <c r="JY7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA7" s="10" t="n">
+      <c r="KA7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB7" s="10" t="n">
@@ -8952,13 +8992,13 @@
       <c r="KV7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW7" s="11" t="n">
+      <c r="KW7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY7" s="10" t="n">
+      <c r="KY7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ7" s="10" t="n">
@@ -9021,13 +9061,13 @@
       <c r="LS7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT7" s="11" t="n">
+      <c r="LT7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV7" s="10" t="n">
+      <c r="LV7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW7" s="10" t="n">
@@ -9069,8 +9109,12 @@
       <c r="MI7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ7" s="10"/>
-      <c r="MK7" s="10"/>
+      <c r="MJ7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK7" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML7" s="10"/>
       <c r="MM7" s="10"/>
       <c r="MN7" s="10"/>
@@ -9085,18 +9129,20 @@
       <c r="MW7" s="10"/>
       <c r="MX7" s="10"/>
       <c r="MY7" s="10"/>
-      <c r="MZ7" s="12"/>
-      <c r="NA7" s="12"/>
+      <c r="MZ7" s="10"/>
+      <c r="NA7" s="10"/>
       <c r="NB7" s="12"/>
       <c r="NC7" s="12"/>
       <c r="ND7" s="12"/>
       <c r="NE7" s="12"/>
       <c r="NF7" s="12"/>
       <c r="NG7" s="12"/>
+      <c r="NH7" s="12"/>
+      <c r="NI7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B8" s="10" t="n">
         <v>0</v>
@@ -9635,10 +9681,10 @@
       <c r="FX8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ8" s="10" t="n">
+      <c r="FY8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA8" s="10" t="n">
@@ -9689,10 +9735,10 @@
       <c r="GP8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR8" s="10" t="n">
+      <c r="GQ8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS8" s="10" t="n">
@@ -9761,10 +9807,10 @@
       <c r="HN8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP8" s="10" t="n">
+      <c r="HO8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ8" s="10" t="n">
@@ -9824,10 +9870,10 @@
       <c r="II8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK8" s="10" t="n">
+      <c r="IJ8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL8" s="10" t="n">
@@ -9878,13 +9924,13 @@
       <c r="JA8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB8" s="11" t="n">
+      <c r="JB8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD8" s="10" t="n">
+      <c r="JD8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE8" s="10" t="n">
@@ -9947,13 +9993,13 @@
       <c r="JX8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY8" s="11" t="n">
+      <c r="JY8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA8" s="10" t="n">
+      <c r="KA8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB8" s="10" t="n">
@@ -10019,13 +10065,13 @@
       <c r="KV8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW8" s="11" t="n">
+      <c r="KW8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY8" s="10" t="n">
+      <c r="KY8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ8" s="10" t="n">
@@ -10088,13 +10134,13 @@
       <c r="LS8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT8" s="11" t="n">
+      <c r="LT8" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV8" s="10" t="n">
+      <c r="LV8" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW8" s="10" t="n">
@@ -10136,8 +10182,12 @@
       <c r="MI8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ8" s="10"/>
-      <c r="MK8" s="10"/>
+      <c r="MJ8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK8" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML8" s="10"/>
       <c r="MM8" s="10"/>
       <c r="MN8" s="10"/>
@@ -10152,18 +10202,20 @@
       <c r="MW8" s="10"/>
       <c r="MX8" s="10"/>
       <c r="MY8" s="10"/>
-      <c r="MZ8" s="12"/>
-      <c r="NA8" s="12"/>
+      <c r="MZ8" s="10"/>
+      <c r="NA8" s="10"/>
       <c r="NB8" s="12"/>
       <c r="NC8" s="12"/>
       <c r="ND8" s="12"/>
       <c r="NE8" s="12"/>
       <c r="NF8" s="12"/>
       <c r="NG8" s="12"/>
+      <c r="NH8" s="12"/>
+      <c r="NI8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" s="10" t="n">
         <v>0</v>
@@ -10702,10 +10754,10 @@
       <c r="FX9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ9" s="10" t="n">
+      <c r="FY9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA9" s="10" t="n">
@@ -10756,10 +10808,10 @@
       <c r="GP9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR9" s="10" t="n">
+      <c r="GQ9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS9" s="10" t="n">
@@ -10828,10 +10880,10 @@
       <c r="HN9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP9" s="10" t="n">
+      <c r="HO9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ9" s="10" t="n">
@@ -10891,10 +10943,10 @@
       <c r="II9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK9" s="10" t="n">
+      <c r="IJ9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL9" s="10" t="n">
@@ -10945,13 +10997,13 @@
       <c r="JA9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB9" s="11" t="n">
+      <c r="JB9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD9" s="10" t="n">
+      <c r="JD9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE9" s="10" t="n">
@@ -11014,13 +11066,13 @@
       <c r="JX9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY9" s="11" t="n">
+      <c r="JY9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA9" s="10" t="n">
+      <c r="KA9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB9" s="10" t="n">
@@ -11086,13 +11138,13 @@
       <c r="KV9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW9" s="11" t="n">
+      <c r="KW9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY9" s="10" t="n">
+      <c r="KY9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ9" s="10" t="n">
@@ -11155,13 +11207,13 @@
       <c r="LS9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT9" s="11" t="n">
+      <c r="LT9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV9" s="10" t="n">
+      <c r="LV9" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW9" s="10" t="n">
@@ -11203,8 +11255,12 @@
       <c r="MI9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ9" s="10"/>
-      <c r="MK9" s="10"/>
+      <c r="MJ9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK9" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML9" s="10"/>
       <c r="MM9" s="10"/>
       <c r="MN9" s="10"/>
@@ -11219,18 +11275,20 @@
       <c r="MW9" s="10"/>
       <c r="MX9" s="10"/>
       <c r="MY9" s="10"/>
-      <c r="MZ9" s="12"/>
-      <c r="NA9" s="12"/>
+      <c r="MZ9" s="10"/>
+      <c r="NA9" s="10"/>
       <c r="NB9" s="12"/>
       <c r="NC9" s="12"/>
       <c r="ND9" s="12"/>
       <c r="NE9" s="12"/>
       <c r="NF9" s="12"/>
       <c r="NG9" s="12"/>
+      <c r="NH9" s="12"/>
+      <c r="NI9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B10" s="10" t="n">
         <v>0</v>
@@ -11769,10 +11827,10 @@
       <c r="FX10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ10" s="10" t="n">
+      <c r="FY10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA10" s="10" t="n">
@@ -11823,10 +11881,10 @@
       <c r="GP10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR10" s="10" t="n">
+      <c r="GQ10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS10" s="10" t="n">
@@ -11895,10 +11953,10 @@
       <c r="HN10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP10" s="10" t="n">
+      <c r="HO10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ10" s="10" t="n">
@@ -11958,10 +12016,10 @@
       <c r="II10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK10" s="10" t="n">
+      <c r="IJ10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL10" s="10" t="n">
@@ -12012,13 +12070,13 @@
       <c r="JA10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB10" s="11" t="n">
+      <c r="JB10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD10" s="10" t="n">
+      <c r="JD10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE10" s="10" t="n">
@@ -12081,13 +12139,13 @@
       <c r="JX10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY10" s="11" t="n">
+      <c r="JY10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA10" s="10" t="n">
+      <c r="KA10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB10" s="10" t="n">
@@ -12153,13 +12211,13 @@
       <c r="KV10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW10" s="11" t="n">
+      <c r="KW10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY10" s="10" t="n">
+      <c r="KY10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ10" s="10" t="n">
@@ -12222,13 +12280,13 @@
       <c r="LS10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT10" s="11" t="n">
+      <c r="LT10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV10" s="10" t="n">
+      <c r="LV10" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW10" s="10" t="n">
@@ -12270,8 +12328,12 @@
       <c r="MI10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ10" s="10"/>
-      <c r="MK10" s="10"/>
+      <c r="MJ10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK10" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML10" s="10"/>
       <c r="MM10" s="10"/>
       <c r="MN10" s="10"/>
@@ -12286,18 +12348,20 @@
       <c r="MW10" s="10"/>
       <c r="MX10" s="10"/>
       <c r="MY10" s="10"/>
-      <c r="MZ10" s="12"/>
-      <c r="NA10" s="12"/>
+      <c r="MZ10" s="10"/>
+      <c r="NA10" s="10"/>
       <c r="NB10" s="12"/>
       <c r="NC10" s="12"/>
       <c r="ND10" s="12"/>
       <c r="NE10" s="12"/>
       <c r="NF10" s="12"/>
       <c r="NG10" s="12"/>
+      <c r="NH10" s="12"/>
+      <c r="NI10" s="12"/>
     </row>
     <row r="11" s="23" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B11" s="20" t="n">
         <v>0</v>
@@ -12836,10 +12900,10 @@
       <c r="FX11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="FY11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ11" s="20" t="n">
+      <c r="FY11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="GA11" s="20" t="n">
@@ -12890,10 +12954,10 @@
       <c r="GP11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="GQ11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR11" s="20" t="n">
+      <c r="GQ11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="GS11" s="20" t="n">
@@ -12962,10 +13026,10 @@
       <c r="HN11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="HO11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP11" s="20" t="n">
+      <c r="HO11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="HQ11" s="20" t="n">
@@ -13025,10 +13089,10 @@
       <c r="II11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="IJ11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK11" s="20" t="n">
+      <c r="IJ11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="IL11" s="20" t="n">
@@ -13079,13 +13143,13 @@
       <c r="JA11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="JB11" s="21" t="n">
+      <c r="JB11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="JC11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="JD11" s="20" t="n">
+      <c r="JD11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="JE11" s="20" t="n">
@@ -13148,13 +13212,13 @@
       <c r="JX11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="JY11" s="21" t="n">
+      <c r="JY11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="JZ11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="KA11" s="20" t="n">
+      <c r="KA11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="KB11" s="20" t="n">
@@ -13220,13 +13284,13 @@
       <c r="KV11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="KW11" s="21" t="n">
+      <c r="KW11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="KX11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="KY11" s="20" t="n">
+      <c r="KY11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="KZ11" s="20" t="n">
@@ -13289,13 +13353,13 @@
       <c r="LS11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="LT11" s="21" t="n">
+      <c r="LT11" s="20" t="n">
         <v>0</v>
       </c>
       <c r="LU11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="LV11" s="20" t="n">
+      <c r="LV11" s="21" t="n">
         <v>0</v>
       </c>
       <c r="LW11" s="20" t="n">
@@ -13337,8 +13401,12 @@
       <c r="MI11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="MJ11" s="20"/>
-      <c r="MK11" s="20"/>
+      <c r="MJ11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK11" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="ML11" s="20"/>
       <c r="MM11" s="20"/>
       <c r="MN11" s="20"/>
@@ -13353,18 +13421,22 @@
       <c r="MW11" s="20"/>
       <c r="MX11" s="20"/>
       <c r="MY11" s="20"/>
-      <c r="MZ11" s="22"/>
-      <c r="NA11" s="22"/>
+      <c r="MZ11" s="20"/>
+      <c r="NA11" s="20"/>
       <c r="NB11" s="22"/>
       <c r="NC11" s="22"/>
       <c r="ND11" s="22"/>
       <c r="NE11" s="22"/>
       <c r="NF11" s="22"/>
       <c r="NG11" s="22"/>
+      <c r="NH11" s="22"/>
+      <c r="NI11" s="22"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B12" s="10" t="n">
         <v>0</v>
@@ -13903,10 +13975,10 @@
       <c r="FX12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ12" s="10" t="n">
+      <c r="FY12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA12" s="10" t="n">
@@ -13957,10 +14029,10 @@
       <c r="GP12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR12" s="10" t="n">
+      <c r="GQ12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS12" s="10" t="n">
@@ -14029,10 +14101,10 @@
       <c r="HN12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP12" s="10" t="n">
+      <c r="HO12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ12" s="10" t="n">
@@ -14092,10 +14164,10 @@
       <c r="II12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK12" s="10" t="n">
+      <c r="IJ12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL12" s="10" t="n">
@@ -14146,13 +14218,13 @@
       <c r="JA12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB12" s="11" t="n">
+      <c r="JB12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD12" s="10" t="n">
+      <c r="JD12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE12" s="10" t="n">
@@ -14215,13 +14287,13 @@
       <c r="JX12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY12" s="11" t="n">
+      <c r="JY12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA12" s="10" t="n">
+      <c r="KA12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB12" s="10" t="n">
@@ -14287,13 +14359,13 @@
       <c r="KV12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW12" s="11" t="n">
+      <c r="KW12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY12" s="10" t="n">
+      <c r="KY12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ12" s="10" t="n">
@@ -14356,13 +14428,13 @@
       <c r="LS12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT12" s="11" t="n">
+      <c r="LT12" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV12" s="10" t="n">
+      <c r="LV12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW12" s="10" t="n">
@@ -14404,8 +14476,12 @@
       <c r="MI12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ12" s="10"/>
-      <c r="MK12" s="10"/>
+      <c r="MJ12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK12" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML12" s="10"/>
       <c r="MM12" s="10"/>
       <c r="MN12" s="10"/>
@@ -14420,18 +14496,20 @@
       <c r="MW12" s="10"/>
       <c r="MX12" s="10"/>
       <c r="MY12" s="10"/>
-      <c r="MZ12" s="12"/>
-      <c r="NA12" s="12"/>
+      <c r="MZ12" s="10"/>
+      <c r="NA12" s="10"/>
       <c r="NB12" s="12"/>
       <c r="NC12" s="12"/>
       <c r="ND12" s="12"/>
       <c r="NE12" s="12"/>
       <c r="NF12" s="12"/>
       <c r="NG12" s="12"/>
+      <c r="NH12" s="12"/>
+      <c r="NI12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B13" s="10" t="n">
         <v>0</v>
@@ -14970,10 +15048,10 @@
       <c r="FX13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ13" s="10" t="n">
+      <c r="FY13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA13" s="10" t="n">
@@ -15024,10 +15102,10 @@
       <c r="GP13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR13" s="10" t="n">
+      <c r="GQ13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS13" s="10" t="n">
@@ -15096,10 +15174,10 @@
       <c r="HN13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP13" s="10" t="n">
+      <c r="HO13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ13" s="10" t="n">
@@ -15159,10 +15237,10 @@
       <c r="II13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK13" s="10" t="n">
+      <c r="IJ13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL13" s="10" t="n">
@@ -15213,13 +15291,13 @@
       <c r="JA13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB13" s="11" t="n">
+      <c r="JB13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD13" s="10" t="n">
+      <c r="JD13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE13" s="10" t="n">
@@ -15282,13 +15360,13 @@
       <c r="JX13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY13" s="11" t="n">
+      <c r="JY13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA13" s="10" t="n">
+      <c r="KA13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB13" s="10" t="n">
@@ -15354,13 +15432,13 @@
       <c r="KV13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW13" s="11" t="n">
+      <c r="KW13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY13" s="10" t="n">
+      <c r="KY13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ13" s="10" t="n">
@@ -15423,13 +15501,13 @@
       <c r="LS13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT13" s="11" t="n">
+      <c r="LT13" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV13" s="10" t="n">
+      <c r="LV13" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW13" s="10" t="n">
@@ -15471,8 +15549,12 @@
       <c r="MI13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ13" s="10"/>
-      <c r="MK13" s="10"/>
+      <c r="MJ13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK13" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML13" s="10"/>
       <c r="MM13" s="10"/>
       <c r="MN13" s="10"/>
@@ -15487,18 +15569,20 @@
       <c r="MW13" s="10"/>
       <c r="MX13" s="10"/>
       <c r="MY13" s="10"/>
-      <c r="MZ13" s="12"/>
-      <c r="NA13" s="12"/>
+      <c r="MZ13" s="10"/>
+      <c r="NA13" s="10"/>
       <c r="NB13" s="12"/>
       <c r="NC13" s="12"/>
       <c r="ND13" s="12"/>
       <c r="NE13" s="12"/>
       <c r="NF13" s="12"/>
       <c r="NG13" s="12"/>
+      <c r="NH13" s="12"/>
+      <c r="NI13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B14" s="10" t="n">
         <v>0</v>
@@ -16037,10 +16121,10 @@
       <c r="FX14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="FY14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" s="10" t="n">
+      <c r="FY14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GA14" s="10" t="n">
@@ -16091,10 +16175,10 @@
       <c r="GP14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="GQ14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR14" s="10" t="n">
+      <c r="GQ14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="GS14" s="10" t="n">
@@ -16163,10 +16247,10 @@
       <c r="HN14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="HO14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP14" s="10" t="n">
+      <c r="HO14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="HQ14" s="10" t="n">
@@ -16226,10 +16310,10 @@
       <c r="II14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="IJ14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK14" s="10" t="n">
+      <c r="IJ14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="IL14" s="10" t="n">
@@ -16280,13 +16364,13 @@
       <c r="JA14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JB14" s="11" t="n">
+      <c r="JB14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JC14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JD14" s="10" t="n">
+      <c r="JD14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="JE14" s="10" t="n">
@@ -16349,13 +16433,13 @@
       <c r="JX14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="JY14" s="11" t="n">
+      <c r="JY14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="JZ14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KA14" s="10" t="n">
+      <c r="KA14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KB14" s="10" t="n">
@@ -16421,13 +16505,13 @@
       <c r="KV14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KW14" s="11" t="n">
+      <c r="KW14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="KX14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="KY14" s="10" t="n">
+      <c r="KY14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="KZ14" s="10" t="n">
@@ -16490,13 +16574,13 @@
       <c r="LS14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LT14" s="11" t="n">
+      <c r="LT14" s="10" t="n">
         <v>0</v>
       </c>
       <c r="LU14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="LV14" s="10" t="n">
+      <c r="LV14" s="11" t="n">
         <v>0</v>
       </c>
       <c r="LW14" s="10" t="n">
@@ -16538,8 +16622,12 @@
       <c r="MI14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="MJ14" s="10"/>
-      <c r="MK14" s="10"/>
+      <c r="MJ14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK14" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="ML14" s="10"/>
       <c r="MM14" s="10"/>
       <c r="MN14" s="10"/>
@@ -16554,18 +16642,20 @@
       <c r="MW14" s="10"/>
       <c r="MX14" s="10"/>
       <c r="MY14" s="10"/>
-      <c r="MZ14" s="12"/>
-      <c r="NA14" s="12"/>
+      <c r="MZ14" s="10"/>
+      <c r="NA14" s="10"/>
       <c r="NB14" s="12"/>
       <c r="NC14" s="12"/>
       <c r="ND14" s="12"/>
       <c r="NE14" s="12"/>
       <c r="NF14" s="12"/>
       <c r="NG14" s="12"/>
+      <c r="NH14" s="12"/>
+      <c r="NI14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -16746,8 +16836,8 @@
       <c r="FV15" s="12"/>
       <c r="FW15" s="12"/>
       <c r="FX15" s="12"/>
-      <c r="FY15" s="24"/>
-      <c r="FZ15" s="12"/>
+      <c r="FY15" s="12"/>
+      <c r="FZ15" s="24"/>
       <c r="GA15" s="12"/>
       <c r="GB15" s="12"/>
       <c r="GC15" s="12"/>
@@ -16764,8 +16854,8 @@
       <c r="GN15" s="12"/>
       <c r="GO15" s="12"/>
       <c r="GP15" s="12"/>
-      <c r="GQ15" s="24"/>
-      <c r="GR15" s="12"/>
+      <c r="GQ15" s="12"/>
+      <c r="GR15" s="24"/>
       <c r="GS15" s="12"/>
       <c r="GT15" s="12"/>
       <c r="GU15" s="12"/>
@@ -16788,8 +16878,8 @@
       <c r="HL15" s="12"/>
       <c r="HM15" s="12"/>
       <c r="HN15" s="12"/>
-      <c r="HO15" s="24"/>
-      <c r="HP15" s="12"/>
+      <c r="HO15" s="12"/>
+      <c r="HP15" s="24"/>
       <c r="HQ15" s="12"/>
       <c r="HR15" s="12"/>
       <c r="HS15" s="12"/>
@@ -16809,8 +16899,8 @@
       <c r="IG15" s="12"/>
       <c r="IH15" s="12"/>
       <c r="II15" s="12"/>
-      <c r="IJ15" s="24"/>
-      <c r="IK15" s="12"/>
+      <c r="IJ15" s="12"/>
+      <c r="IK15" s="24"/>
       <c r="IL15" s="12"/>
       <c r="IM15" s="12"/>
       <c r="IN15" s="12"/>
@@ -16827,9 +16917,9 @@
       <c r="IY15" s="12"/>
       <c r="IZ15" s="12"/>
       <c r="JA15" s="12"/>
-      <c r="JB15" s="24"/>
+      <c r="JB15" s="12"/>
       <c r="JC15" s="12"/>
-      <c r="JD15" s="12"/>
+      <c r="JD15" s="24"/>
       <c r="JE15" s="12"/>
       <c r="JF15" s="12"/>
       <c r="JG15" s="12"/>
@@ -16850,9 +16940,9 @@
       <c r="JV15" s="12"/>
       <c r="JW15" s="12"/>
       <c r="JX15" s="12"/>
-      <c r="JY15" s="24"/>
+      <c r="JY15" s="12"/>
       <c r="JZ15" s="12"/>
-      <c r="KA15" s="12"/>
+      <c r="KA15" s="24"/>
       <c r="KB15" s="12"/>
       <c r="KC15" s="12"/>
       <c r="KD15" s="12"/>
@@ -16874,9 +16964,9 @@
       <c r="KT15" s="12"/>
       <c r="KU15" s="12"/>
       <c r="KV15" s="12"/>
-      <c r="KW15" s="24"/>
+      <c r="KW15" s="12"/>
       <c r="KX15" s="12"/>
-      <c r="KY15" s="12"/>
+      <c r="KY15" s="24"/>
       <c r="KZ15" s="12"/>
       <c r="LA15" s="12"/>
       <c r="LB15" s="12"/>
@@ -16897,9 +16987,9 @@
       <c r="LQ15" s="12"/>
       <c r="LR15" s="12"/>
       <c r="LS15" s="12"/>
-      <c r="LT15" s="24"/>
+      <c r="LT15" s="12"/>
       <c r="LU15" s="12"/>
-      <c r="LV15" s="12"/>
+      <c r="LV15" s="24"/>
       <c r="LW15" s="12"/>
       <c r="LX15" s="12"/>
       <c r="LY15" s="12"/>
@@ -16937,10 +17027,12 @@
       <c r="NE15" s="12"/>
       <c r="NF15" s="12"/>
       <c r="NG15" s="12"/>
+      <c r="NH15" s="12"/>
+      <c r="NI15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -17121,8 +17213,8 @@
       <c r="FV16" s="12"/>
       <c r="FW16" s="12"/>
       <c r="FX16" s="12"/>
-      <c r="FY16" s="24"/>
-      <c r="FZ16" s="12"/>
+      <c r="FY16" s="12"/>
+      <c r="FZ16" s="24"/>
       <c r="GA16" s="12"/>
       <c r="GB16" s="12"/>
       <c r="GC16" s="12"/>
@@ -17139,8 +17231,8 @@
       <c r="GN16" s="12"/>
       <c r="GO16" s="12"/>
       <c r="GP16" s="12"/>
-      <c r="GQ16" s="24"/>
-      <c r="GR16" s="12"/>
+      <c r="GQ16" s="12"/>
+      <c r="GR16" s="24"/>
       <c r="GS16" s="12"/>
       <c r="GT16" s="12"/>
       <c r="GU16" s="12"/>
@@ -17163,8 +17255,8 @@
       <c r="HL16" s="12"/>
       <c r="HM16" s="12"/>
       <c r="HN16" s="12"/>
-      <c r="HO16" s="24"/>
-      <c r="HP16" s="12"/>
+      <c r="HO16" s="12"/>
+      <c r="HP16" s="24"/>
       <c r="HQ16" s="12"/>
       <c r="HR16" s="12"/>
       <c r="HS16" s="12"/>
@@ -17184,8 +17276,8 @@
       <c r="IG16" s="12"/>
       <c r="IH16" s="12"/>
       <c r="II16" s="12"/>
-      <c r="IJ16" s="24"/>
-      <c r="IK16" s="12"/>
+      <c r="IJ16" s="12"/>
+      <c r="IK16" s="24"/>
       <c r="IL16" s="12"/>
       <c r="IM16" s="12"/>
       <c r="IN16" s="12"/>
@@ -17202,9 +17294,9 @@
       <c r="IY16" s="12"/>
       <c r="IZ16" s="12"/>
       <c r="JA16" s="12"/>
-      <c r="JB16" s="24"/>
+      <c r="JB16" s="12"/>
       <c r="JC16" s="12"/>
-      <c r="JD16" s="12"/>
+      <c r="JD16" s="24"/>
       <c r="JE16" s="12"/>
       <c r="JF16" s="12"/>
       <c r="JG16" s="12"/>
@@ -17225,9 +17317,9 @@
       <c r="JV16" s="12"/>
       <c r="JW16" s="12"/>
       <c r="JX16" s="12"/>
-      <c r="JY16" s="24"/>
+      <c r="JY16" s="12"/>
       <c r="JZ16" s="12"/>
-      <c r="KA16" s="12"/>
+      <c r="KA16" s="24"/>
       <c r="KB16" s="12"/>
       <c r="KC16" s="12"/>
       <c r="KD16" s="12"/>
@@ -17249,9 +17341,9 @@
       <c r="KT16" s="12"/>
       <c r="KU16" s="12"/>
       <c r="KV16" s="12"/>
-      <c r="KW16" s="24"/>
+      <c r="KW16" s="12"/>
       <c r="KX16" s="12"/>
-      <c r="KY16" s="12"/>
+      <c r="KY16" s="24"/>
       <c r="KZ16" s="12"/>
       <c r="LA16" s="12"/>
       <c r="LB16" s="12"/>
@@ -17272,9 +17364,9 @@
       <c r="LQ16" s="12"/>
       <c r="LR16" s="12"/>
       <c r="LS16" s="12"/>
-      <c r="LT16" s="24"/>
+      <c r="LT16" s="12"/>
       <c r="LU16" s="12"/>
-      <c r="LV16" s="12"/>
+      <c r="LV16" s="24"/>
       <c r="LW16" s="12"/>
       <c r="LX16" s="12"/>
       <c r="LY16" s="12"/>
@@ -17312,6 +17404,8 @@
       <c r="NE16" s="12"/>
       <c r="NF16" s="12"/>
       <c r="NG16" s="12"/>
+      <c r="NH16" s="12"/>
+      <c r="NI16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25"/>
@@ -20275,7 +20369,8 @@
       <c r="A1003" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="86">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
@@ -20318,51 +20413,51 @@
     <mergeCell ref="FF1:FG1"/>
     <mergeCell ref="FH1:FI1"/>
     <mergeCell ref="FK1:FL1"/>
-    <mergeCell ref="FM1:FO1"/>
-    <mergeCell ref="FP1:FQ1"/>
-    <mergeCell ref="FR1:FT1"/>
-    <mergeCell ref="FV1:FY1"/>
-    <mergeCell ref="GE1:GG1"/>
-    <mergeCell ref="GI1:GJ1"/>
-    <mergeCell ref="GK1:GM1"/>
-    <mergeCell ref="GR1:GT1"/>
-    <mergeCell ref="GV1:GX1"/>
-    <mergeCell ref="HB1:HD1"/>
-    <mergeCell ref="HF1:HK1"/>
-    <mergeCell ref="HM1:HN1"/>
-    <mergeCell ref="HR1:HS1"/>
-    <mergeCell ref="HU1:HW1"/>
-    <mergeCell ref="HY1:IA1"/>
-    <mergeCell ref="IC1:ID1"/>
-    <mergeCell ref="IE1:IF1"/>
-    <mergeCell ref="IH1:II1"/>
-    <mergeCell ref="IK1:IN1"/>
-    <mergeCell ref="IP1:IR1"/>
-    <mergeCell ref="IT1:IW1"/>
-    <mergeCell ref="JC1:JG1"/>
-    <mergeCell ref="JL1:JM1"/>
-    <mergeCell ref="JO1:JR1"/>
-    <mergeCell ref="JT1:JU1"/>
-    <mergeCell ref="JW1:JY1"/>
-    <mergeCell ref="JZ1:KA1"/>
+    <mergeCell ref="FM1:FP1"/>
+    <mergeCell ref="FQ1:FR1"/>
+    <mergeCell ref="FS1:FU1"/>
+    <mergeCell ref="FW1:FZ1"/>
+    <mergeCell ref="GF1:GH1"/>
+    <mergeCell ref="GJ1:GK1"/>
+    <mergeCell ref="GL1:GN1"/>
+    <mergeCell ref="GS1:GU1"/>
+    <mergeCell ref="GW1:GY1"/>
+    <mergeCell ref="HC1:HE1"/>
+    <mergeCell ref="HG1:HL1"/>
+    <mergeCell ref="HN1:HO1"/>
+    <mergeCell ref="HS1:HT1"/>
+    <mergeCell ref="HV1:HX1"/>
+    <mergeCell ref="HZ1:IB1"/>
+    <mergeCell ref="ID1:IE1"/>
+    <mergeCell ref="IF1:IG1"/>
+    <mergeCell ref="II1:IJ1"/>
+    <mergeCell ref="IL1:IO1"/>
+    <mergeCell ref="IQ1:IS1"/>
+    <mergeCell ref="IU1:IY1"/>
+    <mergeCell ref="JE1:JI1"/>
+    <mergeCell ref="JN1:JO1"/>
+    <mergeCell ref="JQ1:JT1"/>
+    <mergeCell ref="JV1:JW1"/>
+    <mergeCell ref="JY1:KA1"/>
     <mergeCell ref="KB1:KC1"/>
-    <mergeCell ref="KG1:KJ1"/>
-    <mergeCell ref="KK1:KM1"/>
-    <mergeCell ref="KN1:KP1"/>
-    <mergeCell ref="KU1:KW1"/>
-    <mergeCell ref="KX1:KZ1"/>
-    <mergeCell ref="LA1:LB1"/>
-    <mergeCell ref="LD1:LE1"/>
+    <mergeCell ref="KD1:KE1"/>
+    <mergeCell ref="KI1:KL1"/>
+    <mergeCell ref="KM1:KO1"/>
+    <mergeCell ref="KP1:KR1"/>
+    <mergeCell ref="KW1:KY1"/>
+    <mergeCell ref="KZ1:LB1"/>
+    <mergeCell ref="LC1:LD1"/>
     <mergeCell ref="LF1:LG1"/>
-    <mergeCell ref="LL1:LO1"/>
-    <mergeCell ref="LQ1:LS1"/>
-    <mergeCell ref="LU1:LW1"/>
-    <mergeCell ref="LY1:LZ1"/>
-    <mergeCell ref="MA1:MC1"/>
-    <mergeCell ref="ME1:MF1"/>
-    <mergeCell ref="MH1:MI1"/>
+    <mergeCell ref="LH1:LI1"/>
+    <mergeCell ref="LN1:LQ1"/>
+    <mergeCell ref="LS1:LU1"/>
+    <mergeCell ref="LW1:LY1"/>
+    <mergeCell ref="MA1:MB1"/>
+    <mergeCell ref="MC1:ME1"/>
+    <mergeCell ref="MG1:MH1"/>
+    <mergeCell ref="MJ1:MK1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:MI14">
+  <conditionalFormatting sqref="B3:MK14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
